--- a/Development/Modules states description.xlsx
+++ b/Development/Modules states description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\AutoomaticLab\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263EE30-1A09-44F0-ADEC-97548D037594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A2BD9-DFB5-4582-89F1-C42BBF67E24B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Device Interface</t>
   </si>
   <si>
-    <t>filament_and_anode_tab</t>
-  </si>
-  <si>
     <t>GUI, Control</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Lcard_syncdController</t>
   </si>
   <si>
-    <t>Lcard_VAC_GUI</t>
-  </si>
-  <si>
     <t>MainWindow_CloseEvent</t>
   </si>
   <si>
@@ -135,12 +129,6 @@
     <t>Commentary</t>
   </si>
   <si>
-    <t>tests not passed due to Lcard_IF_FullBuffers</t>
-  </si>
-  <si>
-    <t>tests not passed due to Lcard_VAC_GUI</t>
-  </si>
-  <si>
     <t>UNUSED</t>
   </si>
   <si>
@@ -150,7 +138,16 @@
     <t>Assemble_v3 rewritten on new device interfaces</t>
   </si>
   <si>
-    <t>Test: unsupported operand type(s) for //: 'NoneType' and 'int'</t>
+    <t>tests not passed: arguments did not match any overloaded call:  start(self, msec: int): argument 1 has unexpected type 'float',   start(self): too many arguments</t>
+  </si>
+  <si>
+    <t>Tab_Lcard_VAC_GUI</t>
+  </si>
+  <si>
+    <t>tests not passed due to Tab_Lcard_VAC_GUI</t>
+  </si>
+  <si>
+    <t>Tab_Filament_and_Anode</t>
   </si>
 </sst>
 </file>
@@ -589,7 +586,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -625,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
@@ -640,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -649,51 +646,49 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -704,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
@@ -713,99 +708,99 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>5</v>
@@ -816,7 +811,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>5</v>
@@ -824,30 +819,30 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -855,10 +850,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -866,10 +861,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -877,10 +872,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -888,10 +883,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -899,10 +894,10 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>

--- a/Development/Modules states description.xlsx
+++ b/Development/Modules states description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\AutoomaticLab\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A2BD9-DFB5-4582-89F1-C42BBF67E24B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D977617-3ADF-4412-B467-74DF75E29395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>Lcard_EmptyDevice</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Assemble_v3 rewritten on new device interfaces</t>
   </si>
   <si>
-    <t>tests not passed: arguments did not match any overloaded call:  start(self, msec: int): argument 1 has unexpected type 'float',   start(self): too many arguments</t>
-  </si>
-  <si>
     <t>Tab_Lcard_VAC_GUI</t>
   </si>
   <si>
@@ -148,6 +142,27 @@
   </si>
   <si>
     <t>Tab_Filament_and_Anode</t>
+  </si>
+  <si>
+    <t>Compilation Tests</t>
+  </si>
+  <si>
+    <t>Use tests</t>
+  </si>
+  <si>
+    <t>requires ThreadSleepTime = 0.03 if max Lcard frequency is used</t>
+  </si>
+  <si>
+    <t>PASSED LCARD</t>
+  </si>
+  <si>
+    <t>Tab_Device_Connections</t>
+  </si>
+  <si>
+    <t>PASSED without Tab_Lcard_VAC_GUI and Korad</t>
+  </si>
+  <si>
+    <t>Lcard is so fricking fast, it rewrites its Data and creates forbidden access for anybody, who tries to read it. Lcard_IFFB_withDataChunks is needed</t>
   </si>
 </sst>
 </file>
@@ -163,12 +178,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AEB35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -290,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,12 +330,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7AEB35"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -583,21 +617,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,303 +640,359 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B15" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
